--- a/uniprotkb_accession_A1A4S6_OR_accession_2023_08_31.xlsx
+++ b/uniprotkb_accession_A1A4S6_OR_accession_2023_08_31.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,9 +434,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,17 +448,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Helix</t>
+          <t>Sequence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Turn</t>
+          <t>Start_position</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Beta strand</t>
+          <t>End_position</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
         </is>
       </c>
     </row>
@@ -469,174 +475,1950 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>780..782-QNY</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>728..730-IRS
-732..737-KARAVY
-743..746-HSSE
-754..760-IFEDVQT
-766..771-WLEGTL
-774..779-KRGLIP
-783..785-VKL</t>
+          <t>QNY</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>780</v>
+      </c>
+      <c r="D2" t="n">
+        <v>782</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Helix</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A1L3X0</t>
+          <t>A1A4S6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17..20-WIKD
-23..25-PRV
-35..49-LPQTILLGFYVYFVT
-51..56-LGPKLM
-65..88-KKAMITYNFFIVLFSVYMCYEFVM
-108..126-PTALRMARTCWLYYFSKFI
-129..136-LDTIFFVL
-140..142-NSQ
-145..164-FLHVFHHTIMPWTWWFGVKF
-168..171-GLGT
-172..192-FHALLNTAVHVVMYSYYGLSA
-195..198-PAYQ
-204..227-KKYLTSLQLVQFVIVAIHISQFFF
-237..260-VFACIIMSYSFMFLLLFLHFWYRA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>89..94-SGWGIG</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>97..99-FRC</t>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>728</v>
+      </c>
+      <c r="D3" t="n">
+        <v>730</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A2RUC4</t>
+          <t>A1A4S6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16..22-REQFMQH
-24..26-YPQ
-40..43-CTSK
-46..53-VDYLSQVG
-82..90-FDQLVQRAA
-121..124-IRKQ
-126..129-PLLK
-140..142-EEQ
-182..188-PRDAQYL
-211..213-FSK
-255..257-SEC
-270..286-TAASRAAQILDRALKTL
-291..308-EEYRDFYARRMVLHIQDK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>70..72-FIS
-114..116-PRK
-205..207-LAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10..13-RLEG
-30..34-LVLEG
-57..66-EVKIHVAAVA
-76..81-VYRTLP
-106..108-YLR
-143..151-FFSSVFRIS
-156..160-QLWTH
-163..170-VMDNLLIQ
-175..180-KRVVLF
-194..196-KSE
-200..202-IDN
-216..221-RYECSL
-226..229-VLFI
-234..241-FHNVISEE
-243..250-GVGVNIFW
-263..265-TYG</t>
+          <t>KARAVY</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>732</v>
+      </c>
+      <c r="D4" t="n">
+        <v>737</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A4GXA9</t>
+          <t>A1A4S6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>82..86-TAILE
-88..90-AGA
-91..97-DVLMEAL
-147..156-PEEFLQGVAT
-185..192-LDAYLWSR
-216..230-WPEVEEALVLLQLWA
-240..264-WQELSRHVCAVTKALAQYPLKQYRE
-289..298-LQAAWRRQIR
-305..314-PAVADAVVTA
-319..326-RLLQQALE
-331..335-ERERM
-356..366-PDLSRRICLFL</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>70..72-EQV
-336..340-GLLAD</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>73..80-LKRLAVCV
-102..106-CECRI
-110..119-RPARSLRWTR
-141..145-LLLLL
-178..184-PHLAVIG
-234..239-VLLVAS
-265..267-SQA
-347..350-EGGR</t>
+          <t>HSSE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>743</v>
+      </c>
+      <c r="D5" t="n">
+        <v>746</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A6H8Y1</t>
+          <t>A1A4S6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>305..317-NKETDMFFLAISM
-322..328-FSMIGQL
-334..347-RIEIKNKFKREEKT
-349..357-GWRIDKAFQ
-364..381-FDFFAHLLQKVLAEEEKR</t>
+          <t>IFEDVQT</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>754</v>
+      </c>
+      <c r="D6" t="n">
+        <v>760</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>A1A4S6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WLEGTL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>766</v>
+      </c>
+      <c r="D7" t="n">
+        <v>771</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A1A4S6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>KRGLIP</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>774</v>
+      </c>
+      <c r="D8" t="n">
+        <v>779</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A1A4S6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>VKL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>783</v>
+      </c>
+      <c r="D9" t="n">
+        <v>785</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WIKD</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PRV</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LPQTILLGFYVYFVT</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" t="n">
+        <v>49</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LGPKLM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>51</v>
+      </c>
+      <c r="D13" t="n">
+        <v>56</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>KKAMITYNFFIVLFSVYMCYEFVM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>65</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PTALRMARTCWLYYFSKFI</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>108</v>
+      </c>
+      <c r="D15" t="n">
+        <v>126</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LDTIFFVL</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>129</v>
+      </c>
+      <c r="D16" t="n">
+        <v>136</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NSQ</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>140</v>
+      </c>
+      <c r="D17" t="n">
+        <v>142</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FLHVFHHTIMPWTWWFGVKF</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>145</v>
+      </c>
+      <c r="D18" t="n">
+        <v>164</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GLGT</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>168</v>
+      </c>
+      <c r="D19" t="n">
+        <v>171</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FHALLNTAVHVVMYSYYGLSA</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>172</v>
+      </c>
+      <c r="D20" t="n">
+        <v>192</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PAYQ</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>195</v>
+      </c>
+      <c r="D21" t="n">
+        <v>198</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KKYLTSLQLVQFVIVAIHISQFFF</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>204</v>
+      </c>
+      <c r="D22" t="n">
+        <v>227</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>VFACIIMSYSFMFLLLFLHFWYRA</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>237</v>
+      </c>
+      <c r="D23" t="n">
+        <v>260</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SGWGIG</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>89</v>
+      </c>
+      <c r="D24" t="n">
+        <v>94</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Turn</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A1L3X0</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FRC</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>97</v>
+      </c>
+      <c r="D25" t="n">
+        <v>99</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>REQFMQH</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>16</v>
+      </c>
+      <c r="D26" t="n">
+        <v>22</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>YPQ</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CTSK</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>40</v>
+      </c>
+      <c r="D28" t="n">
+        <v>43</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VDYLSQVG</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>46</v>
+      </c>
+      <c r="D29" t="n">
+        <v>53</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FDQLVQRAA</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>82</v>
+      </c>
+      <c r="D30" t="n">
+        <v>90</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>IRKQ</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>121</v>
+      </c>
+      <c r="D31" t="n">
+        <v>124</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PLLK</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>126</v>
+      </c>
+      <c r="D32" t="n">
+        <v>129</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EEQ</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>140</v>
+      </c>
+      <c r="D33" t="n">
+        <v>142</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PRDAQYL</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>182</v>
+      </c>
+      <c r="D34" t="n">
+        <v>188</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FSK</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>211</v>
+      </c>
+      <c r="D35" t="n">
+        <v>213</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SEC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>255</v>
+      </c>
+      <c r="D36" t="n">
+        <v>257</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TAASRAAQILDRALKTL</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>270</v>
+      </c>
+      <c r="D37" t="n">
+        <v>286</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>EEYRDFYARRMVLHIQDK</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>291</v>
+      </c>
+      <c r="D38" t="n">
+        <v>308</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>70</v>
+      </c>
+      <c r="D39" t="n">
+        <v>72</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Turn</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PRK</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>114</v>
+      </c>
+      <c r="D40" t="n">
+        <v>116</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Turn</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LAK</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>205</v>
+      </c>
+      <c r="D41" t="n">
+        <v>207</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Turn</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RLEG</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="n">
+        <v>13</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LVLEG</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>30</v>
+      </c>
+      <c r="D43" t="n">
+        <v>34</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>EVKIHVAAVA</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>57</v>
+      </c>
+      <c r="D44" t="n">
+        <v>66</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VYRTLP</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>76</v>
+      </c>
+      <c r="D45" t="n">
+        <v>81</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>YLR</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>106</v>
+      </c>
+      <c r="D46" t="n">
+        <v>108</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FFSSVFRIS</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>143</v>
+      </c>
+      <c r="D47" t="n">
+        <v>151</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QLWTH</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>156</v>
+      </c>
+      <c r="D48" t="n">
+        <v>160</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>VMDNLLIQ</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>163</v>
+      </c>
+      <c r="D49" t="n">
+        <v>170</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>KRVVLF</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>175</v>
+      </c>
+      <c r="D50" t="n">
+        <v>180</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>KSE</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>194</v>
+      </c>
+      <c r="D51" t="n">
+        <v>196</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>IDN</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>200</v>
+      </c>
+      <c r="D52" t="n">
+        <v>202</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>RYECSL</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>216</v>
+      </c>
+      <c r="D53" t="n">
+        <v>221</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>VLFI</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>226</v>
+      </c>
+      <c r="D54" t="n">
+        <v>229</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FHNVISEE</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>234</v>
+      </c>
+      <c r="D55" t="n">
+        <v>241</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>GVGVNIFW</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>243</v>
+      </c>
+      <c r="D56" t="n">
+        <v>250</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>A2RUC4</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TYG</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>263</v>
+      </c>
+      <c r="D57" t="n">
+        <v>265</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TAILE</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>82</v>
+      </c>
+      <c r="D58" t="n">
+        <v>86</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>AGA</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>88</v>
+      </c>
+      <c r="D59" t="n">
+        <v>90</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DVLMEAL</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>91</v>
+      </c>
+      <c r="D60" t="n">
+        <v>97</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PEEFLQGVAT</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>147</v>
+      </c>
+      <c r="D61" t="n">
+        <v>156</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>LDAYLWSR</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>185</v>
+      </c>
+      <c r="D62" t="n">
+        <v>192</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>WPEVEEALVLLQLWA</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>216</v>
+      </c>
+      <c r="D63" t="n">
+        <v>230</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>WQELSRHVCAVTKALAQYPLKQYRE</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>240</v>
+      </c>
+      <c r="D64" t="n">
+        <v>264</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LQAAWRRQIR</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>289</v>
+      </c>
+      <c r="D65" t="n">
+        <v>298</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PAVADAVVTA</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>305</v>
+      </c>
+      <c r="D66" t="n">
+        <v>314</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>RLLQQALE</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>319</v>
+      </c>
+      <c r="D67" t="n">
+        <v>326</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ERERM</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>331</v>
+      </c>
+      <c r="D68" t="n">
+        <v>335</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PDLSRRICLFL</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>356</v>
+      </c>
+      <c r="D69" t="n">
+        <v>366</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>EQV</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>70</v>
+      </c>
+      <c r="D70" t="n">
+        <v>72</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Turn</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>GLLAD</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>336</v>
+      </c>
+      <c r="D71" t="n">
+        <v>340</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Turn</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>LKRLAVCV</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>73</v>
+      </c>
+      <c r="D72" t="n">
+        <v>80</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CECRI</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>102</v>
+      </c>
+      <c r="D73" t="n">
+        <v>106</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>RPARSLRWTR</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>110</v>
+      </c>
+      <c r="D74" t="n">
+        <v>119</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>LLLLL</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>141</v>
+      </c>
+      <c r="D75" t="n">
+        <v>145</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>PHLAVIG</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>178</v>
+      </c>
+      <c r="D76" t="n">
+        <v>184</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>VLLVAS</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>234</v>
+      </c>
+      <c r="D77" t="n">
+        <v>239</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SQA</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>265</v>
+      </c>
+      <c r="D78" t="n">
+        <v>267</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>A4GXA9</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>EGGR</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>347</v>
+      </c>
+      <c r="D79" t="n">
+        <v>350</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Beta strand</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>A6H8Y1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NKETDMFFLAISM</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>305</v>
+      </c>
+      <c r="D80" t="n">
+        <v>317</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>A6H8Y1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>FSMIGQL</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>322</v>
+      </c>
+      <c r="D81" t="n">
+        <v>328</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>A6H8Y1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>RIEIKNKFKREEKT</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>334</v>
+      </c>
+      <c r="D82" t="n">
+        <v>347</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>A6H8Y1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>GWRIDKAFQ</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>349</v>
+      </c>
+      <c r="D83" t="n">
+        <v>357</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>A6H8Y1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>FDFFAHLLQKVLAEEEKR</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>364</v>
+      </c>
+      <c r="D84" t="n">
+        <v>381</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>A6NGG8</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>835..838-MEVL
-842..845-SFAS</t>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MEVL</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>835</v>
+      </c>
+      <c r="D85" t="n">
+        <v>838</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>A6NGG8</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SFAS</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>842</v>
+      </c>
+      <c r="D86" t="n">
+        <v>845</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Helix</t>
         </is>
       </c>
     </row>
